--- a/Projeto-3/indicator_f above 15 employ.xlsx
+++ b/Projeto-3/indicator_f above 15 employ.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo\Documents\GitHub\CD_projeto3\Projeto-3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="270" yWindow="585" windowWidth="11175" windowHeight="4305"/>
+    <workbookView xWindow="270" yWindow="590" windowWidth="11180" windowHeight="4310"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -15,12 +20,12 @@
     <sheet name="v" sheetId="6" r:id="rId6"/>
     <sheet name="Plan1" sheetId="7" state="hidden" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="217">
   <si>
     <t>Country</t>
   </si>
@@ -668,9 +673,6 @@
   </si>
   <si>
     <t>Zimbabwe</t>
-  </si>
-  <si>
-    <t>Paises</t>
   </si>
   <si>
     <t>year</t>
@@ -679,7 +681,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00E-00"/>
   </numFmts>
@@ -693,57 +695,67 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF010000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="24"/>
       <color rgb="FF010000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF010000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="10"/>
       <color rgb="FF3366FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="10"/>
       <color rgb="FF010000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="10"/>
       <color rgb="FF6666CC"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1412,6 +1424,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1419,7 +1434,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1457,9 +1472,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1492,9 +1507,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1527,9 +1559,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1705,21 +1754,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D157" workbookViewId="0">
-      <selection activeCell="A176" sqref="A176:R176"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.28515625" customWidth="1"/>
-    <col min="2" max="18" width="14.140625" customWidth="1"/>
-    <col min="19" max="19" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="53.26953125" customWidth="1"/>
+    <col min="2" max="18" width="14.1796875" customWidth="1"/>
+    <col min="19" max="19" width="9.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>216</v>
-      </c>
+    <row r="1" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4"/>
       <c r="B1" s="6">
         <v>1991</v>
       </c>
@@ -1769,11 +1814,11 @@
         <v>2006</v>
       </c>
       <c r="R1" s="73" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S1" s="8"/>
     </row>
-    <row r="2" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
@@ -1830,7 +1875,7 @@
       </c>
       <c r="S2" s="8"/>
     </row>
-    <row r="3" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -1887,7 +1932,7 @@
       </c>
       <c r="S3" s="8"/>
     </row>
-    <row r="4" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
@@ -1944,7 +1989,7 @@
       </c>
       <c r="S4" s="8"/>
     </row>
-    <row r="5" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>6</v>
       </c>
@@ -2001,7 +2046,7 @@
       </c>
       <c r="S5" s="8"/>
     </row>
-    <row r="6" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>7</v>
       </c>
@@ -2058,7 +2103,7 @@
       </c>
       <c r="S6" s="8"/>
     </row>
-    <row r="7" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>8</v>
       </c>
@@ -2115,7 +2160,7 @@
       </c>
       <c r="S7" s="8"/>
     </row>
-    <row r="8" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>10</v>
       </c>
@@ -2172,7 +2217,7 @@
       </c>
       <c r="S8" s="8"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>11</v>
       </c>
@@ -2229,7 +2274,7 @@
       </c>
       <c r="S9" s="8"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>12</v>
       </c>
@@ -2286,7 +2331,7 @@
       </c>
       <c r="S10" s="8"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>13</v>
       </c>
@@ -2343,7 +2388,7 @@
       </c>
       <c r="S11" s="8"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>14</v>
       </c>
@@ -2400,7 +2445,7 @@
       </c>
       <c r="S12" s="8"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>15</v>
       </c>
@@ -2457,7 +2502,7 @@
       </c>
       <c r="S13" s="8"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>16</v>
       </c>
@@ -2514,7 +2559,7 @@
       </c>
       <c r="S14" s="8"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>17</v>
       </c>
@@ -2571,7 +2616,7 @@
       </c>
       <c r="S15" s="8"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>19</v>
       </c>
@@ -2628,7 +2673,7 @@
       </c>
       <c r="S16" s="8"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>21</v>
       </c>
@@ -2685,7 +2730,7 @@
       </c>
       <c r="S17" s="8"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>22</v>
       </c>
@@ -2742,7 +2787,7 @@
       </c>
       <c r="S18" s="8"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>23</v>
       </c>
@@ -2799,7 +2844,7 @@
       </c>
       <c r="S19" s="8"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>24</v>
       </c>
@@ -2856,7 +2901,7 @@
       </c>
       <c r="S20" s="8"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>25</v>
       </c>
@@ -2913,7 +2958,7 @@
       </c>
       <c r="S21" s="8"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>27</v>
       </c>
@@ -2970,7 +3015,7 @@
       </c>
       <c r="S22" s="8"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>28</v>
       </c>
@@ -3027,7 +3072,7 @@
       </c>
       <c r="S23" s="8"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>30</v>
       </c>
@@ -3084,7 +3129,7 @@
       </c>
       <c r="S24" s="8"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>32</v>
       </c>
@@ -3141,7 +3186,7 @@
       </c>
       <c r="S25" s="8"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>33</v>
       </c>
@@ -3198,7 +3243,7 @@
       </c>
       <c r="S26" s="8"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>34</v>
       </c>
@@ -3255,7 +3300,7 @@
       </c>
       <c r="S27" s="8"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>35</v>
       </c>
@@ -3312,7 +3357,7 @@
       </c>
       <c r="S28" s="8"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>36</v>
       </c>
@@ -3369,7 +3414,7 @@
       </c>
       <c r="S29" s="8"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>38</v>
       </c>
@@ -3426,7 +3471,7 @@
       </c>
       <c r="S30" s="8"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>39</v>
       </c>
@@ -3483,7 +3528,7 @@
       </c>
       <c r="S31" s="8"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>40</v>
       </c>
@@ -3540,7 +3585,7 @@
       </c>
       <c r="S32" s="8"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>41</v>
       </c>
@@ -3597,7 +3642,7 @@
       </c>
       <c r="S33" s="8"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>43</v>
       </c>
@@ -3654,7 +3699,7 @@
       </c>
       <c r="S34" s="8"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>45</v>
       </c>
@@ -3711,7 +3756,7 @@
       </c>
       <c r="S35" s="8"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>46</v>
       </c>
@@ -3768,7 +3813,7 @@
       </c>
       <c r="S36" s="8"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>47</v>
       </c>
@@ -3825,7 +3870,7 @@
       </c>
       <c r="S37" s="8"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>49</v>
       </c>
@@ -3882,7 +3927,7 @@
       </c>
       <c r="S38" s="8"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>50</v>
       </c>
@@ -3939,7 +3984,7 @@
       </c>
       <c r="S39" s="8"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>51</v>
       </c>
@@ -3996,7 +4041,7 @@
       </c>
       <c r="S40" s="8"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>52</v>
       </c>
@@ -4053,7 +4098,7 @@
       </c>
       <c r="S41" s="8"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>53</v>
       </c>
@@ -4110,7 +4155,7 @@
       </c>
       <c r="S42" s="8"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>54</v>
       </c>
@@ -4167,7 +4212,7 @@
       </c>
       <c r="S43" s="8"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>57</v>
       </c>
@@ -4224,7 +4269,7 @@
       </c>
       <c r="S44" s="8"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>59</v>
       </c>
@@ -4281,7 +4326,7 @@
       </c>
       <c r="S45" s="8"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>60</v>
       </c>
@@ -4338,7 +4383,7 @@
       </c>
       <c r="S46" s="8"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>61</v>
       </c>
@@ -4395,7 +4440,7 @@
       </c>
       <c r="S47" s="8"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>62</v>
       </c>
@@ -4452,7 +4497,7 @@
       </c>
       <c r="S48" s="8"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>63</v>
       </c>
@@ -4509,7 +4554,7 @@
       </c>
       <c r="S49" s="8"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>64</v>
       </c>
@@ -4566,7 +4611,7 @@
       </c>
       <c r="S50" s="8"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>68</v>
       </c>
@@ -4623,7 +4668,7 @@
       </c>
       <c r="S51" s="8"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>69</v>
       </c>
@@ -4680,7 +4725,7 @@
       </c>
       <c r="S52" s="8"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>70</v>
       </c>
@@ -4737,7 +4782,7 @@
       </c>
       <c r="S53" s="8"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>72</v>
       </c>
@@ -4794,7 +4839,7 @@
       </c>
       <c r="S54" s="8"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>73</v>
       </c>
@@ -4851,7 +4896,7 @@
       </c>
       <c r="S55" s="8"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>74</v>
       </c>
@@ -4908,7 +4953,7 @@
       </c>
       <c r="S56" s="8"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>75</v>
       </c>
@@ -4965,7 +5010,7 @@
       </c>
       <c r="S57" s="8"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>76</v>
       </c>
@@ -5022,7 +5067,7 @@
       </c>
       <c r="S58" s="8"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>77</v>
       </c>
@@ -5079,7 +5124,7 @@
       </c>
       <c r="S59" s="8"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>78</v>
       </c>
@@ -5136,7 +5181,7 @@
       </c>
       <c r="S60" s="8"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>79</v>
       </c>
@@ -5193,7 +5238,7 @@
       </c>
       <c r="S61" s="8"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>80</v>
       </c>
@@ -5250,7 +5295,7 @@
       </c>
       <c r="S62" s="8"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>81</v>
       </c>
@@ -5307,7 +5352,7 @@
       </c>
       <c r="S63" s="8"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>82</v>
       </c>
@@ -5364,7 +5409,7 @@
       </c>
       <c r="S64" s="8"/>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>83</v>
       </c>
@@ -5421,7 +5466,7 @@
       </c>
       <c r="S65" s="8"/>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>84</v>
       </c>
@@ -5478,7 +5523,7 @@
       </c>
       <c r="S66" s="8"/>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>85</v>
       </c>
@@ -5535,7 +5580,7 @@
       </c>
       <c r="S67" s="8"/>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>86</v>
       </c>
@@ -5592,7 +5637,7 @@
       </c>
       <c r="S68" s="8"/>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>87</v>
       </c>
@@ -5649,7 +5694,7 @@
       </c>
       <c r="S69" s="8"/>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
         <v>88</v>
       </c>
@@ -5706,7 +5751,7 @@
       </c>
       <c r="S70" s="8"/>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>89</v>
       </c>
@@ -5763,7 +5808,7 @@
       </c>
       <c r="S71" s="8"/>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>90</v>
       </c>
@@ -5820,7 +5865,7 @@
       </c>
       <c r="S72" s="8"/>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>91</v>
       </c>
@@ -5877,7 +5922,7 @@
       </c>
       <c r="S73" s="8"/>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>92</v>
       </c>
@@ -5934,7 +5979,7 @@
       </c>
       <c r="S74" s="8"/>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>94</v>
       </c>
@@ -5991,7 +6036,7 @@
       </c>
       <c r="S75" s="8"/>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
         <v>95</v>
       </c>
@@ -6048,7 +6093,7 @@
       </c>
       <c r="S76" s="8"/>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
         <v>96</v>
       </c>
@@ -6105,7 +6150,7 @@
       </c>
       <c r="S77" s="8"/>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
         <v>97</v>
       </c>
@@ -6162,7 +6207,7 @@
       </c>
       <c r="S78" s="8"/>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
         <v>98</v>
       </c>
@@ -6219,7 +6264,7 @@
       </c>
       <c r="S79" s="8"/>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
         <v>99</v>
       </c>
@@ -6276,7 +6321,7 @@
       </c>
       <c r="S80" s="8"/>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
         <v>100</v>
       </c>
@@ -6333,7 +6378,7 @@
       </c>
       <c r="S81" s="8"/>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="s">
         <v>101</v>
       </c>
@@ -6390,7 +6435,7 @@
       </c>
       <c r="S82" s="8"/>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
         <v>102</v>
       </c>
@@ -6447,7 +6492,7 @@
       </c>
       <c r="S83" s="8"/>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
         <v>103</v>
       </c>
@@ -6504,7 +6549,7 @@
       </c>
       <c r="S84" s="8"/>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
         <v>104</v>
       </c>
@@ -6561,7 +6606,7 @@
       </c>
       <c r="S85" s="8"/>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
         <v>106</v>
       </c>
@@ -6618,7 +6663,7 @@
       </c>
       <c r="S86" s="8"/>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
         <v>107</v>
       </c>
@@ -6675,7 +6720,7 @@
       </c>
       <c r="S87" s="8"/>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="s">
         <v>108</v>
       </c>
@@ -6732,7 +6777,7 @@
       </c>
       <c r="S88" s="8"/>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
         <v>109</v>
       </c>
@@ -6789,7 +6834,7 @@
       </c>
       <c r="S89" s="8"/>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
         <v>111</v>
       </c>
@@ -6846,7 +6891,7 @@
       </c>
       <c r="S90" s="8"/>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
         <v>112</v>
       </c>
@@ -6903,7 +6948,7 @@
       </c>
       <c r="S91" s="8"/>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
         <v>114</v>
       </c>
@@ -6960,7 +7005,7 @@
       </c>
       <c r="S92" s="8"/>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
         <v>115</v>
       </c>
@@ -7017,7 +7062,7 @@
       </c>
       <c r="S93" s="8"/>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
         <v>117</v>
       </c>
@@ -7074,7 +7119,7 @@
       </c>
       <c r="S94" s="8"/>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
         <v>120</v>
       </c>
@@ -7131,7 +7176,7 @@
       </c>
       <c r="S95" s="8"/>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
         <v>121</v>
       </c>
@@ -7188,7 +7233,7 @@
       </c>
       <c r="S96" s="8"/>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A97" s="10" t="s">
         <v>123</v>
       </c>
@@ -7245,7 +7290,7 @@
       </c>
       <c r="S97" s="8"/>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A98" s="10" t="s">
         <v>124</v>
       </c>
@@ -7302,7 +7347,7 @@
       </c>
       <c r="S98" s="8"/>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
         <v>125</v>
       </c>
@@ -7359,7 +7404,7 @@
       </c>
       <c r="S99" s="8"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
         <v>126</v>
       </c>
@@ -7416,7 +7461,7 @@
       </c>
       <c r="S100" s="8"/>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A101" s="10" t="s">
         <v>128</v>
       </c>
@@ -7473,7 +7518,7 @@
       </c>
       <c r="S101" s="8"/>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A102" s="10" t="s">
         <v>129</v>
       </c>
@@ -7530,7 +7575,7 @@
       </c>
       <c r="S102" s="8"/>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="s">
         <v>130</v>
       </c>
@@ -7587,7 +7632,7 @@
       </c>
       <c r="S103" s="8"/>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
         <v>131</v>
       </c>
@@ -7644,7 +7689,7 @@
       </c>
       <c r="S104" s="8"/>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
         <v>132</v>
       </c>
@@ -7701,7 +7746,7 @@
       </c>
       <c r="S105" s="8"/>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
         <v>133</v>
       </c>
@@ -7758,7 +7803,7 @@
       </c>
       <c r="S106" s="8"/>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
         <v>134</v>
       </c>
@@ -7815,7 +7860,7 @@
       </c>
       <c r="S107" s="8"/>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
         <v>136</v>
       </c>
@@ -7872,7 +7917,7 @@
       </c>
       <c r="S108" s="8"/>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
         <v>137</v>
       </c>
@@ -7929,7 +7974,7 @@
       </c>
       <c r="S109" s="8"/>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
         <v>138</v>
       </c>
@@ -7986,7 +8031,7 @@
       </c>
       <c r="S110" s="8"/>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
         <v>139</v>
       </c>
@@ -8043,7 +8088,7 @@
       </c>
       <c r="S111" s="8"/>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
         <v>140</v>
       </c>
@@ -8100,7 +8145,7 @@
       </c>
       <c r="S112" s="8"/>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
         <v>141</v>
       </c>
@@ -8157,7 +8202,7 @@
       </c>
       <c r="S113" s="8"/>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A114" s="10" t="s">
         <v>143</v>
       </c>
@@ -8214,7 +8259,7 @@
       </c>
       <c r="S114" s="8"/>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
         <v>144</v>
       </c>
@@ -8271,7 +8316,7 @@
       </c>
       <c r="S115" s="8"/>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
         <v>146</v>
       </c>
@@ -8328,7 +8373,7 @@
       </c>
       <c r="S116" s="8"/>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
         <v>147</v>
       </c>
@@ -8385,7 +8430,7 @@
       </c>
       <c r="S117" s="8"/>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="s">
         <v>149</v>
       </c>
@@ -8442,7 +8487,7 @@
       </c>
       <c r="S118" s="8"/>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
         <v>150</v>
       </c>
@@ -8499,7 +8544,7 @@
       </c>
       <c r="S119" s="8"/>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
         <v>152</v>
       </c>
@@ -8556,7 +8601,7 @@
       </c>
       <c r="S120" s="8"/>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
         <v>153</v>
       </c>
@@ -8613,7 +8658,7 @@
       </c>
       <c r="S121" s="8"/>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="s">
         <v>154</v>
       </c>
@@ -8670,7 +8715,7 @@
       </c>
       <c r="S122" s="8"/>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
         <v>155</v>
       </c>
@@ -8727,7 +8772,7 @@
       </c>
       <c r="S123" s="8"/>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A124" s="10" t="s">
         <v>156</v>
       </c>
@@ -8784,7 +8829,7 @@
       </c>
       <c r="S124" s="8"/>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A125" s="10" t="s">
         <v>158</v>
       </c>
@@ -8841,7 +8886,7 @@
       </c>
       <c r="S125" s="8"/>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A126" s="10" t="s">
         <v>159</v>
       </c>
@@ -8898,7 +8943,7 @@
       </c>
       <c r="S126" s="8"/>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A127" s="10" t="s">
         <v>161</v>
       </c>
@@ -8955,7 +9000,7 @@
       </c>
       <c r="S127" s="8"/>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A128" s="10" t="s">
         <v>162</v>
       </c>
@@ -9012,7 +9057,7 @@
       </c>
       <c r="S128" s="8"/>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A129" s="10" t="s">
         <v>165</v>
       </c>
@@ -9069,7 +9114,7 @@
       </c>
       <c r="S129" s="8"/>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A130" s="10" t="s">
         <v>166</v>
       </c>
@@ -9126,7 +9171,7 @@
       </c>
       <c r="S130" s="8"/>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A131" s="10" t="s">
         <v>167</v>
       </c>
@@ -9183,7 +9228,7 @@
       </c>
       <c r="S131" s="8"/>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A132" s="10" t="s">
         <v>168</v>
       </c>
@@ -9240,7 +9285,7 @@
       </c>
       <c r="S132" s="8"/>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A133" s="10" t="s">
         <v>169</v>
       </c>
@@ -9297,7 +9342,7 @@
       </c>
       <c r="S133" s="8"/>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A134" s="10" t="s">
         <v>170</v>
       </c>
@@ -9354,7 +9399,7 @@
       </c>
       <c r="S134" s="8"/>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A135" s="10" t="s">
         <v>171</v>
       </c>
@@ -9411,7 +9456,7 @@
       </c>
       <c r="S135" s="8"/>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A136" s="10" t="s">
         <v>172</v>
       </c>
@@ -9468,7 +9513,7 @@
       </c>
       <c r="S136" s="8"/>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A137" s="10" t="s">
         <v>173</v>
       </c>
@@ -9525,7 +9570,7 @@
       </c>
       <c r="S137" s="8"/>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A138" s="10" t="s">
         <v>174</v>
       </c>
@@ -9582,7 +9627,7 @@
       </c>
       <c r="S138" s="8"/>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A139" s="10" t="s">
         <v>175</v>
       </c>
@@ -9639,7 +9684,7 @@
       </c>
       <c r="S139" s="8"/>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A140" s="10" t="s">
         <v>176</v>
       </c>
@@ -9696,7 +9741,7 @@
       </c>
       <c r="S140" s="8"/>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A141" s="10" t="s">
         <v>177</v>
       </c>
@@ -9753,7 +9798,7 @@
       </c>
       <c r="S141" s="8"/>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A142" s="10" t="s">
         <v>178</v>
       </c>
@@ -9810,7 +9855,7 @@
       </c>
       <c r="S142" s="8"/>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A143" s="10" t="s">
         <v>179</v>
       </c>
@@ -9867,7 +9912,7 @@
       </c>
       <c r="S143" s="8"/>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A144" s="10" t="s">
         <v>180</v>
       </c>
@@ -9924,7 +9969,7 @@
       </c>
       <c r="S144" s="8"/>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A145" s="10" t="s">
         <v>181</v>
       </c>
@@ -9981,7 +10026,7 @@
       </c>
       <c r="S145" s="8"/>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A146" s="10" t="s">
         <v>182</v>
       </c>
@@ -10038,7 +10083,7 @@
       </c>
       <c r="S146" s="8"/>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A147" s="10" t="s">
         <v>183</v>
       </c>
@@ -10095,7 +10140,7 @@
       </c>
       <c r="S147" s="8"/>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A148" s="10" t="s">
         <v>184</v>
       </c>
@@ -10152,7 +10197,7 @@
       </c>
       <c r="S148" s="8"/>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A149" s="10" t="s">
         <v>185</v>
       </c>
@@ -10209,7 +10254,7 @@
       </c>
       <c r="S149" s="8"/>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A150" s="10" t="s">
         <v>186</v>
       </c>
@@ -10266,7 +10311,7 @@
       </c>
       <c r="S150" s="8"/>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A151" s="10" t="s">
         <v>187</v>
       </c>
@@ -10323,7 +10368,7 @@
       </c>
       <c r="S151" s="8"/>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A152" s="10" t="s">
         <v>188</v>
       </c>
@@ -10380,7 +10425,7 @@
       </c>
       <c r="S152" s="8"/>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A153" s="10" t="s">
         <v>189</v>
       </c>
@@ -10437,7 +10482,7 @@
       </c>
       <c r="S153" s="8"/>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A154" s="10" t="s">
         <v>190</v>
       </c>
@@ -10494,7 +10539,7 @@
       </c>
       <c r="S154" s="8"/>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A155" s="10" t="s">
         <v>191</v>
       </c>
@@ -10551,7 +10596,7 @@
       </c>
       <c r="S155" s="8"/>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A156" s="10" t="s">
         <v>192</v>
       </c>
@@ -10608,7 +10653,7 @@
       </c>
       <c r="S156" s="8"/>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A157" s="10" t="s">
         <v>193</v>
       </c>
@@ -10665,7 +10710,7 @@
       </c>
       <c r="S157" s="8"/>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A158" s="10" t="s">
         <v>194</v>
       </c>
@@ -10722,7 +10767,7 @@
       </c>
       <c r="S158" s="8"/>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A159" s="10" t="s">
         <v>195</v>
       </c>
@@ -10779,7 +10824,7 @@
       </c>
       <c r="S159" s="8"/>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A160" s="10" t="s">
         <v>196</v>
       </c>
@@ -10836,7 +10881,7 @@
       </c>
       <c r="S160" s="8"/>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A161" s="10" t="s">
         <v>197</v>
       </c>
@@ -10893,7 +10938,7 @@
       </c>
       <c r="S161" s="8"/>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A162" s="10" t="s">
         <v>198</v>
       </c>
@@ -10950,7 +10995,7 @@
       </c>
       <c r="S162" s="8"/>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A163" s="10" t="s">
         <v>199</v>
       </c>
@@ -11007,7 +11052,7 @@
       </c>
       <c r="S163" s="8"/>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A164" s="10" t="s">
         <v>200</v>
       </c>
@@ -11064,7 +11109,7 @@
       </c>
       <c r="S164" s="8"/>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A165" s="10" t="s">
         <v>201</v>
       </c>
@@ -11121,7 +11166,7 @@
       </c>
       <c r="S165" s="8"/>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A166" s="10" t="s">
         <v>202</v>
       </c>
@@ -11178,7 +11223,7 @@
       </c>
       <c r="S166" s="8"/>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A167" s="10" t="s">
         <v>203</v>
       </c>
@@ -11235,7 +11280,7 @@
       </c>
       <c r="S167" s="8"/>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A168" s="10" t="s">
         <v>204</v>
       </c>
@@ -11292,7 +11337,7 @@
       </c>
       <c r="S168" s="8"/>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A169" s="10" t="s">
         <v>205</v>
       </c>
@@ -11349,7 +11394,7 @@
       </c>
       <c r="S169" s="8"/>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A170" s="10" t="s">
         <v>206</v>
       </c>
@@ -11406,7 +11451,7 @@
       </c>
       <c r="S170" s="8"/>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A171" s="10" t="s">
         <v>207</v>
       </c>
@@ -11463,7 +11508,7 @@
       </c>
       <c r="S171" s="8"/>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A172" s="10" t="s">
         <v>208</v>
       </c>
@@ -11520,7 +11565,7 @@
       </c>
       <c r="S172" s="8"/>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A173" s="10" t="s">
         <v>209</v>
       </c>
@@ -11577,7 +11622,7 @@
       </c>
       <c r="S173" s="8"/>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A174" s="10" t="s">
         <v>210</v>
       </c>
@@ -11634,7 +11679,7 @@
       </c>
       <c r="S174" s="8"/>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A175" s="10" t="s">
         <v>211</v>
       </c>
@@ -11691,7 +11736,7 @@
       </c>
       <c r="S175" s="8"/>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A176" s="10" t="s">
         <v>212</v>
       </c>
@@ -11748,7 +11793,7 @@
       </c>
       <c r="S176" s="8"/>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A177" s="10" t="s">
         <v>213</v>
       </c>
@@ -11805,7 +11850,7 @@
       </c>
       <c r="S177" s="8"/>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A178" s="10" t="s">
         <v>214</v>
       </c>
@@ -11862,7 +11907,7 @@
       </c>
       <c r="S178" s="8"/>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A179" s="10" t="s">
         <v>215</v>
       </c>
@@ -11919,7 +11964,7 @@
       </c>
       <c r="S179" s="8"/>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:19" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A180" s="9"/>
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
@@ -11951,17 +11996,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.140625" customWidth="1"/>
-    <col min="2" max="2" width="44.5703125" customWidth="1"/>
-    <col min="3" max="3" width="91.28515625" customWidth="1"/>
-    <col min="4" max="4" width="2.28515625" customWidth="1"/>
-    <col min="5" max="5" width="0.140625" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="1.1796875" customWidth="1"/>
+    <col min="2" max="2" width="44.54296875" customWidth="1"/>
+    <col min="3" max="3" width="91.26953125" customWidth="1"/>
+    <col min="4" max="4" width="2.26953125" customWidth="1"/>
+    <col min="5" max="5" width="0.1796875" customWidth="1"/>
+    <col min="6" max="6" width="9.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="74" t="str">
         <f>C4</f>
@@ -11972,7 +12017,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="9"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -11980,7 +12025,7 @@
       <c r="E2" s="7"/>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="16" t="s">
         <v>9</v>
@@ -11990,7 +12035,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
       <c r="B4" s="19" t="s">
         <v>18</v>
@@ -12002,7 +12047,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="24" t="s">
         <v>26</v>
@@ -12014,7 +12059,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="24" t="s">
         <v>31</v>
@@ -12024,7 +12069,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="27"/>
       <c r="C7" s="28"/>
@@ -12032,7 +12077,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="30" t="s">
         <v>37</v>
@@ -12042,7 +12087,7 @@
       <c r="E8" s="33"/>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="13" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="34" t="s">
         <v>42</v>
@@ -12054,7 +12099,7 @@
       <c r="E9" s="33"/>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="37" t="s">
         <v>48</v>
@@ -12067,7 +12112,7 @@
       <c r="E10" s="33"/>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11" s="37" t="s">
         <v>55</v>
@@ -12079,7 +12124,7 @@
       <c r="E11" s="33"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="37" t="s">
         <v>58</v>
@@ -12092,7 +12137,7 @@
       <c r="E12" s="33"/>
       <c r="F12" s="9"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="40"/>
       <c r="C13" s="40"/>
@@ -12100,7 +12145,7 @@
       <c r="E13" s="33"/>
       <c r="F13" s="9"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
       <c r="B14" s="30" t="s">
         <v>65</v>
@@ -12110,7 +12155,7 @@
       <c r="E14" s="33"/>
       <c r="F14" s="9"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="34" t="s">
         <v>66</v>
@@ -12122,7 +12167,7 @@
       <c r="E15" s="33"/>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="37" t="s">
         <v>71</v>
@@ -12132,7 +12177,7 @@
       <c r="E16" s="33"/>
       <c r="F16" s="9"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="32"/>
       <c r="C17" s="42"/>
@@ -12140,7 +12185,7 @@
       <c r="E17" s="33"/>
       <c r="F17" s="9"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="32"/>
       <c r="C18" s="42"/>
@@ -12148,7 +12193,7 @@
       <c r="E18" s="33"/>
       <c r="F18" s="9"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="32"/>
       <c r="C19" s="42"/>
@@ -12156,7 +12201,7 @@
       <c r="E19" s="33"/>
       <c r="F19" s="9"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="32"/>
       <c r="C20" s="42"/>
@@ -12164,7 +12209,7 @@
       <c r="E20" s="33"/>
       <c r="F20" s="9"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="32"/>
       <c r="C21" s="42"/>
@@ -12172,7 +12217,7 @@
       <c r="E21" s="33"/>
       <c r="F21" s="9"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="32"/>
       <c r="C22" s="43"/>
@@ -12180,7 +12225,7 @@
       <c r="E22" s="33"/>
       <c r="F22" s="9"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="40"/>
       <c r="C23" s="44"/>
@@ -12188,7 +12233,7 @@
       <c r="E23" s="33"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="45"/>
       <c r="B24" s="31"/>
       <c r="C24" s="31"/>
@@ -12196,7 +12241,7 @@
       <c r="E24" s="33"/>
       <c r="F24" s="9"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="47"/>
       <c r="B25" s="47"/>
       <c r="C25" s="47"/>
@@ -12222,19 +12267,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="91.28515625" customWidth="1"/>
-    <col min="4" max="21" width="5.5703125" customWidth="1"/>
-    <col min="22" max="22" width="6.5703125" customWidth="1"/>
-    <col min="23" max="23" width="7.7109375" customWidth="1"/>
-    <col min="24" max="24" width="8.7109375" customWidth="1"/>
-    <col min="25" max="25" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.54296875" customWidth="1"/>
+    <col min="2" max="2" width="20.7265625" customWidth="1"/>
+    <col min="3" max="3" width="91.26953125" customWidth="1"/>
+    <col min="4" max="21" width="5.54296875" customWidth="1"/>
+    <col min="22" max="22" width="6.54296875" customWidth="1"/>
+    <col min="23" max="23" width="7.7265625" customWidth="1"/>
+    <col min="24" max="24" width="8.7265625" customWidth="1"/>
+    <col min="25" max="25" width="9.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -12267,7 +12312,7 @@
       <c r="X1" s="15"/>
       <c r="Y1" s="9"/>
     </row>
-    <row r="2" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="21"/>
@@ -12294,7 +12339,7 @@
       <c r="X2" s="15"/>
       <c r="Y2" s="9"/>
     </row>
-    <row r="3" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22"/>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
@@ -12321,7 +12366,7 @@
       <c r="X3" s="15"/>
       <c r="Y3" s="9"/>
     </row>
-    <row r="4" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
       <c r="B4" s="15"/>
       <c r="C4" s="22"/>
@@ -12348,7 +12393,7 @@
       <c r="X4" s="15"/>
       <c r="Y4" s="9"/>
     </row>
-    <row r="5" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="15"/>
       <c r="C5" s="22"/>
@@ -12375,7 +12420,7 @@
       <c r="X5" s="15"/>
       <c r="Y5" s="9"/>
     </row>
-    <row r="6" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="22"/>
@@ -12402,7 +12447,7 @@
       <c r="X6" s="15"/>
       <c r="Y6" s="9"/>
     </row>
-    <row r="7" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
@@ -12429,7 +12474,7 @@
       <c r="X7" s="15"/>
       <c r="Y7" s="9"/>
     </row>
-    <row r="8" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
@@ -12456,7 +12501,7 @@
       <c r="X8" s="15"/>
       <c r="Y8" s="9"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
@@ -12483,7 +12528,7 @@
       <c r="X9" s="15"/>
       <c r="Y9" s="9"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A10" s="22"/>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -12510,7 +12555,7 @@
       <c r="X10" s="15"/>
       <c r="Y10" s="9"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
@@ -12537,7 +12582,7 @@
       <c r="X11" s="15"/>
       <c r="Y11" s="9"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A12" s="22"/>
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
@@ -12564,7 +12609,7 @@
       <c r="X12" s="15"/>
       <c r="Y12" s="9"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A13" s="22"/>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
@@ -12591,7 +12636,7 @@
       <c r="X13" s="15"/>
       <c r="Y13" s="9"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A14" s="22"/>
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
@@ -12618,7 +12663,7 @@
       <c r="X14" s="15"/>
       <c r="Y14" s="9"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A15" s="22"/>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
@@ -12645,7 +12690,7 @@
       <c r="X15" s="15"/>
       <c r="Y15" s="9"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A16" s="22"/>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
@@ -12672,7 +12717,7 @@
       <c r="X16" s="15"/>
       <c r="Y16" s="9"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A17" s="22"/>
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
@@ -12699,7 +12744,7 @@
       <c r="X17" s="15"/>
       <c r="Y17" s="9"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A18" s="22"/>
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
@@ -12726,7 +12771,7 @@
       <c r="X18" s="15"/>
       <c r="Y18" s="9"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A19" s="22"/>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
@@ -12753,7 +12798,7 @@
       <c r="X19" s="15"/>
       <c r="Y19" s="9"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="22"/>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
@@ -12780,7 +12825,7 @@
       <c r="X20" s="15"/>
       <c r="Y20" s="9"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A21" s="22"/>
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
@@ -12807,7 +12852,7 @@
       <c r="X21" s="15"/>
       <c r="Y21" s="9"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A22" s="22"/>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
@@ -12834,7 +12879,7 @@
       <c r="X22" s="15"/>
       <c r="Y22" s="9"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A23" s="22"/>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
@@ -12861,7 +12906,7 @@
       <c r="X23" s="15"/>
       <c r="Y23" s="9"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="22"/>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
@@ -12888,7 +12933,7 @@
       <c r="X24" s="15"/>
       <c r="Y24" s="9"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="22"/>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
@@ -12915,7 +12960,7 @@
       <c r="X25" s="15"/>
       <c r="Y25" s="9"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A26" s="22"/>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
@@ -12942,7 +12987,7 @@
       <c r="X26" s="15"/>
       <c r="Y26" s="9"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A27" s="22"/>
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
@@ -12969,7 +13014,7 @@
       <c r="X27" s="15"/>
       <c r="Y27" s="9"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A28" s="22"/>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
@@ -12996,7 +13041,7 @@
       <c r="X28" s="15"/>
       <c r="Y28" s="9"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="22"/>
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
@@ -13023,7 +13068,7 @@
       <c r="X29" s="15"/>
       <c r="Y29" s="9"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="22"/>
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
@@ -13050,7 +13095,7 @@
       <c r="X30" s="15"/>
       <c r="Y30" s="9"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A31" s="22"/>
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
@@ -13077,7 +13122,7 @@
       <c r="X31" s="15"/>
       <c r="Y31" s="9"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A32" s="22"/>
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
@@ -13104,7 +13149,7 @@
       <c r="X32" s="15"/>
       <c r="Y32" s="9"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A33" s="22"/>
       <c r="B33" s="22"/>
       <c r="C33" s="22"/>
@@ -13131,7 +13176,7 @@
       <c r="X33" s="15"/>
       <c r="Y33" s="9"/>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="22"/>
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
@@ -13158,7 +13203,7 @@
       <c r="X34" s="15"/>
       <c r="Y34" s="9"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="22"/>
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
@@ -13185,7 +13230,7 @@
       <c r="X35" s="15"/>
       <c r="Y35" s="9"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="22"/>
       <c r="B36" s="22"/>
       <c r="C36" s="22"/>
@@ -13212,7 +13257,7 @@
       <c r="X36" s="15"/>
       <c r="Y36" s="9"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="22"/>
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
@@ -13239,7 +13284,7 @@
       <c r="X37" s="15"/>
       <c r="Y37" s="9"/>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="22"/>
       <c r="B38" s="22"/>
       <c r="C38" s="22"/>
@@ -13266,7 +13311,7 @@
       <c r="X38" s="15"/>
       <c r="Y38" s="9"/>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="22"/>
       <c r="B39" s="22"/>
       <c r="C39" s="22"/>
@@ -13293,7 +13338,7 @@
       <c r="X39" s="15"/>
       <c r="Y39" s="9"/>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="22"/>
       <c r="B40" s="22"/>
       <c r="C40" s="22"/>
@@ -13320,7 +13365,7 @@
       <c r="X40" s="15"/>
       <c r="Y40" s="9"/>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="22"/>
       <c r="B41" s="22"/>
       <c r="C41" s="22"/>
@@ -13347,7 +13392,7 @@
       <c r="X41" s="15"/>
       <c r="Y41" s="9"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="22"/>
       <c r="B42" s="22"/>
       <c r="C42" s="22"/>
@@ -13374,7 +13419,7 @@
       <c r="X42" s="15"/>
       <c r="Y42" s="9"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="22"/>
       <c r="B43" s="22"/>
       <c r="C43" s="22"/>
@@ -13401,7 +13446,7 @@
       <c r="X43" s="15"/>
       <c r="Y43" s="9"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A44" s="22"/>
       <c r="B44" s="22"/>
       <c r="C44" s="22"/>
@@ -13428,7 +13473,7 @@
       <c r="X44" s="15"/>
       <c r="Y44" s="9"/>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="22"/>
       <c r="B45" s="22"/>
       <c r="C45" s="22"/>
@@ -13455,7 +13500,7 @@
       <c r="X45" s="15"/>
       <c r="Y45" s="9"/>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="22"/>
       <c r="B46" s="22"/>
       <c r="C46" s="22"/>
@@ -13482,7 +13527,7 @@
       <c r="X46" s="15"/>
       <c r="Y46" s="9"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="22"/>
       <c r="B47" s="22"/>
       <c r="C47" s="22"/>
@@ -13509,7 +13554,7 @@
       <c r="X47" s="15"/>
       <c r="Y47" s="9"/>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A48" s="22"/>
       <c r="B48" s="22"/>
       <c r="C48" s="22"/>
@@ -13536,7 +13581,7 @@
       <c r="X48" s="15"/>
       <c r="Y48" s="9"/>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A49" s="22"/>
       <c r="B49" s="22"/>
       <c r="C49" s="22"/>
@@ -13563,7 +13608,7 @@
       <c r="X49" s="15"/>
       <c r="Y49" s="9"/>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A50" s="22"/>
       <c r="B50" s="22"/>
       <c r="C50" s="22"/>
@@ -13590,7 +13635,7 @@
       <c r="X50" s="15"/>
       <c r="Y50" s="9"/>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A51" s="22"/>
       <c r="B51" s="22"/>
       <c r="C51" s="22"/>
@@ -13617,7 +13662,7 @@
       <c r="X51" s="15"/>
       <c r="Y51" s="9"/>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A52" s="22"/>
       <c r="B52" s="22"/>
       <c r="C52" s="22"/>
@@ -13644,7 +13689,7 @@
       <c r="X52" s="15"/>
       <c r="Y52" s="9"/>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A53" s="22"/>
       <c r="B53" s="22"/>
       <c r="C53" s="22"/>
@@ -13671,7 +13716,7 @@
       <c r="X53" s="15"/>
       <c r="Y53" s="9"/>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A54" s="22"/>
       <c r="B54" s="22"/>
       <c r="C54" s="22"/>
@@ -13698,7 +13743,7 @@
       <c r="X54" s="15"/>
       <c r="Y54" s="9"/>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A55" s="22"/>
       <c r="B55" s="22"/>
       <c r="C55" s="22"/>
@@ -13725,7 +13770,7 @@
       <c r="X55" s="15"/>
       <c r="Y55" s="9"/>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A56" s="22"/>
       <c r="B56" s="22"/>
       <c r="C56" s="22"/>
@@ -13752,7 +13797,7 @@
       <c r="X56" s="15"/>
       <c r="Y56" s="9"/>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A57" s="22"/>
       <c r="B57" s="22"/>
       <c r="C57" s="22"/>
@@ -13779,7 +13824,7 @@
       <c r="X57" s="15"/>
       <c r="Y57" s="9"/>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A58" s="22"/>
       <c r="B58" s="22"/>
       <c r="C58" s="22"/>
@@ -13806,7 +13851,7 @@
       <c r="X58" s="15"/>
       <c r="Y58" s="9"/>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A59" s="22"/>
       <c r="B59" s="22"/>
       <c r="C59" s="22"/>
@@ -13833,7 +13878,7 @@
       <c r="X59" s="15"/>
       <c r="Y59" s="9"/>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A60" s="22"/>
       <c r="B60" s="22"/>
       <c r="C60" s="22"/>
@@ -13860,7 +13905,7 @@
       <c r="X60" s="15"/>
       <c r="Y60" s="9"/>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A61" s="22"/>
       <c r="B61" s="22"/>
       <c r="C61" s="22"/>
@@ -13887,7 +13932,7 @@
       <c r="X61" s="15"/>
       <c r="Y61" s="9"/>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A62" s="22"/>
       <c r="B62" s="22"/>
       <c r="C62" s="22"/>
@@ -13914,7 +13959,7 @@
       <c r="X62" s="15"/>
       <c r="Y62" s="9"/>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A63" s="22"/>
       <c r="B63" s="22"/>
       <c r="C63" s="22"/>
@@ -13941,7 +13986,7 @@
       <c r="X63" s="15"/>
       <c r="Y63" s="9"/>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A64" s="22"/>
       <c r="B64" s="22"/>
       <c r="C64" s="22"/>
@@ -13968,7 +14013,7 @@
       <c r="X64" s="15"/>
       <c r="Y64" s="9"/>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A65" s="22"/>
       <c r="B65" s="22"/>
       <c r="C65" s="22"/>
@@ -13995,7 +14040,7 @@
       <c r="X65" s="15"/>
       <c r="Y65" s="9"/>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A66" s="22"/>
       <c r="B66" s="22"/>
       <c r="C66" s="22"/>
@@ -14022,7 +14067,7 @@
       <c r="X66" s="15"/>
       <c r="Y66" s="9"/>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A67" s="22"/>
       <c r="B67" s="22"/>
       <c r="C67" s="22"/>
@@ -14049,7 +14094,7 @@
       <c r="X67" s="15"/>
       <c r="Y67" s="9"/>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A68" s="22"/>
       <c r="B68" s="22"/>
       <c r="C68" s="22"/>
@@ -14076,7 +14121,7 @@
       <c r="X68" s="15"/>
       <c r="Y68" s="9"/>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A69" s="22"/>
       <c r="B69" s="22"/>
       <c r="C69" s="22"/>
@@ -14103,7 +14148,7 @@
       <c r="X69" s="15"/>
       <c r="Y69" s="9"/>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A70" s="22"/>
       <c r="B70" s="22"/>
       <c r="C70" s="22"/>
@@ -14130,7 +14175,7 @@
       <c r="X70" s="15"/>
       <c r="Y70" s="9"/>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A71" s="22"/>
       <c r="B71" s="22"/>
       <c r="C71" s="22"/>
@@ -14157,7 +14202,7 @@
       <c r="X71" s="15"/>
       <c r="Y71" s="9"/>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A72" s="22"/>
       <c r="B72" s="22"/>
       <c r="C72" s="22"/>
@@ -14184,7 +14229,7 @@
       <c r="X72" s="15"/>
       <c r="Y72" s="9"/>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A73" s="22"/>
       <c r="B73" s="22"/>
       <c r="C73" s="22"/>
@@ -14211,7 +14256,7 @@
       <c r="X73" s="15"/>
       <c r="Y73" s="9"/>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A74" s="22"/>
       <c r="B74" s="22"/>
       <c r="C74" s="22"/>
@@ -14238,7 +14283,7 @@
       <c r="X74" s="15"/>
       <c r="Y74" s="9"/>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A75" s="22"/>
       <c r="B75" s="22"/>
       <c r="C75" s="22"/>
@@ -14265,7 +14310,7 @@
       <c r="X75" s="15"/>
       <c r="Y75" s="9"/>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A76" s="22"/>
       <c r="B76" s="22"/>
       <c r="C76" s="22"/>
@@ -14292,7 +14337,7 @@
       <c r="X76" s="15"/>
       <c r="Y76" s="9"/>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A77" s="22"/>
       <c r="B77" s="22"/>
       <c r="C77" s="22"/>
@@ -14319,7 +14364,7 @@
       <c r="X77" s="15"/>
       <c r="Y77" s="9"/>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A78" s="22"/>
       <c r="B78" s="22"/>
       <c r="C78" s="22"/>
@@ -14346,7 +14391,7 @@
       <c r="X78" s="15"/>
       <c r="Y78" s="9"/>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A79" s="22"/>
       <c r="B79" s="22"/>
       <c r="C79" s="22"/>
@@ -14373,7 +14418,7 @@
       <c r="X79" s="15"/>
       <c r="Y79" s="9"/>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A80" s="22"/>
       <c r="B80" s="22"/>
       <c r="C80" s="22"/>
@@ -14400,7 +14445,7 @@
       <c r="X80" s="15"/>
       <c r="Y80" s="9"/>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A81" s="22"/>
       <c r="B81" s="22"/>
       <c r="C81" s="22"/>
@@ -14427,7 +14472,7 @@
       <c r="X81" s="15"/>
       <c r="Y81" s="9"/>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A82" s="22"/>
       <c r="B82" s="22"/>
       <c r="C82" s="22"/>
@@ -14454,7 +14499,7 @@
       <c r="X82" s="15"/>
       <c r="Y82" s="9"/>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A83" s="22"/>
       <c r="B83" s="22"/>
       <c r="C83" s="22"/>
@@ -14481,7 +14526,7 @@
       <c r="X83" s="15"/>
       <c r="Y83" s="9"/>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A84" s="22"/>
       <c r="B84" s="22"/>
       <c r="C84" s="22"/>
@@ -14508,7 +14553,7 @@
       <c r="X84" s="15"/>
       <c r="Y84" s="9"/>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A85" s="22"/>
       <c r="B85" s="22"/>
       <c r="C85" s="22"/>
@@ -14535,7 +14580,7 @@
       <c r="X85" s="15"/>
       <c r="Y85" s="9"/>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A86" s="22"/>
       <c r="B86" s="22"/>
       <c r="C86" s="22"/>
@@ -14562,7 +14607,7 @@
       <c r="X86" s="15"/>
       <c r="Y86" s="9"/>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A87" s="22"/>
       <c r="B87" s="22"/>
       <c r="C87" s="22"/>
@@ -14589,7 +14634,7 @@
       <c r="X87" s="15"/>
       <c r="Y87" s="9"/>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A88" s="22"/>
       <c r="B88" s="22"/>
       <c r="C88" s="22"/>
@@ -14616,7 +14661,7 @@
       <c r="X88" s="15"/>
       <c r="Y88" s="9"/>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A89" s="22"/>
       <c r="B89" s="22"/>
       <c r="C89" s="22"/>
@@ -14643,7 +14688,7 @@
       <c r="X89" s="15"/>
       <c r="Y89" s="9"/>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A90" s="22"/>
       <c r="B90" s="22"/>
       <c r="C90" s="22"/>
@@ -14670,7 +14715,7 @@
       <c r="X90" s="15"/>
       <c r="Y90" s="9"/>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A91" s="22"/>
       <c r="B91" s="22"/>
       <c r="C91" s="22"/>
@@ -14697,7 +14742,7 @@
       <c r="X91" s="15"/>
       <c r="Y91" s="9"/>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A92" s="22"/>
       <c r="B92" s="22"/>
       <c r="C92" s="22"/>
@@ -14724,7 +14769,7 @@
       <c r="X92" s="15"/>
       <c r="Y92" s="9"/>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A93" s="22"/>
       <c r="B93" s="22"/>
       <c r="C93" s="22"/>
@@ -14751,7 +14796,7 @@
       <c r="X93" s="15"/>
       <c r="Y93" s="9"/>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A94" s="22"/>
       <c r="B94" s="22"/>
       <c r="C94" s="22"/>
@@ -14778,7 +14823,7 @@
       <c r="X94" s="15"/>
       <c r="Y94" s="9"/>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A95" s="22"/>
       <c r="B95" s="22"/>
       <c r="C95" s="22"/>
@@ -14805,7 +14850,7 @@
       <c r="X95" s="15"/>
       <c r="Y95" s="9"/>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A96" s="22"/>
       <c r="B96" s="22"/>
       <c r="C96" s="22"/>
@@ -14832,7 +14877,7 @@
       <c r="X96" s="15"/>
       <c r="Y96" s="9"/>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A97" s="22"/>
       <c r="B97" s="22"/>
       <c r="C97" s="22"/>
@@ -14859,7 +14904,7 @@
       <c r="X97" s="15"/>
       <c r="Y97" s="9"/>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A98" s="22"/>
       <c r="B98" s="22"/>
       <c r="C98" s="22"/>
@@ -14886,7 +14931,7 @@
       <c r="X98" s="15"/>
       <c r="Y98" s="9"/>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A99" s="22"/>
       <c r="B99" s="22"/>
       <c r="C99" s="22"/>
@@ -14913,7 +14958,7 @@
       <c r="X99" s="15"/>
       <c r="Y99" s="9"/>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A100" s="15"/>
       <c r="B100" s="15"/>
       <c r="C100" s="15"/>
@@ -14940,7 +14985,7 @@
       <c r="X100" s="15"/>
       <c r="Y100" s="9"/>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A101" s="15"/>
       <c r="B101" s="15"/>
       <c r="C101" s="15"/>
@@ -14967,7 +15012,7 @@
       <c r="X101" s="15"/>
       <c r="Y101" s="9"/>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A102" s="15"/>
       <c r="B102" s="15"/>
       <c r="C102" s="15"/>
@@ -14994,7 +15039,7 @@
       <c r="X102" s="15"/>
       <c r="Y102" s="9"/>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A103" s="15"/>
       <c r="B103" s="15"/>
       <c r="C103" s="15"/>
@@ -15021,7 +15066,7 @@
       <c r="X103" s="15"/>
       <c r="Y103" s="9"/>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A104" s="9"/>
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
@@ -15061,16 +15106,16 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="54.42578125" customWidth="1"/>
-    <col min="3" max="3" width="1.140625" customWidth="1"/>
-    <col min="4" max="4" width="56.5703125" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" customWidth="1"/>
+    <col min="2" max="2" width="54.453125" customWidth="1"/>
+    <col min="3" max="3" width="1.1796875" customWidth="1"/>
+    <col min="4" max="4" width="56.54296875" customWidth="1"/>
+    <col min="5" max="5" width="9.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="76" t="s">
         <v>93</v>
       </c>
@@ -15079,14 +15124,14 @@
       <c r="D1" s="78"/>
       <c r="E1" s="33"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="B2" s="31"/>
       <c r="C2" s="48"/>
       <c r="D2" s="49"/>
       <c r="E2" s="33"/>
     </row>
-    <row r="3" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="50" t="s">
         <v>105</v>
       </c>
@@ -15099,7 +15144,7 @@
       </c>
       <c r="E3" s="33"/>
     </row>
-    <row r="4" spans="1:5" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="50" t="s">
         <v>113</v>
       </c>
@@ -15113,7 +15158,7 @@
       </c>
       <c r="E4" s="33"/>
     </row>
-    <row r="5" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="50" t="s">
         <v>118</v>
       </c>
@@ -15126,35 +15171,35 @@
       </c>
       <c r="E5" s="33"/>
     </row>
-    <row r="6" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="54"/>
       <c r="B6" s="55"/>
       <c r="C6" s="56"/>
       <c r="D6" s="57"/>
       <c r="E6" s="33"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A7" s="47"/>
       <c r="B7" s="47"/>
       <c r="C7" s="47"/>
       <c r="D7" s="58"/>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="59"/>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="59"/>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -15178,17 +15223,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.140625" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" customWidth="1"/>
-    <col min="3" max="3" width="91.28515625" customWidth="1"/>
-    <col min="4" max="4" width="2.28515625" customWidth="1"/>
-    <col min="5" max="5" width="0.140625" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="1.1796875" customWidth="1"/>
+    <col min="2" max="2" width="29.453125" customWidth="1"/>
+    <col min="3" max="3" width="91.26953125" customWidth="1"/>
+    <col min="4" max="4" width="2.26953125" customWidth="1"/>
+    <col min="5" max="5" width="0.1796875" customWidth="1"/>
+    <col min="6" max="6" width="9.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="74" t="s">
         <v>127</v>
@@ -15198,7 +15243,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="9"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -15206,7 +15251,7 @@
       <c r="E2" s="7"/>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="79" t="s">
         <v>135</v>
@@ -15216,7 +15261,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="61"/>
       <c r="B4" s="62" t="s">
         <v>148</v>
@@ -15228,7 +15273,7 @@
       <c r="E4" s="65"/>
       <c r="F4" s="66"/>
     </row>
-    <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="61"/>
       <c r="B5" s="67" t="s">
         <v>157</v>
@@ -15240,7 +15285,7 @@
       <c r="E5" s="65"/>
       <c r="F5" s="66"/>
     </row>
-    <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="61"/>
       <c r="B6" s="67" t="s">
         <v>163</v>
@@ -15252,7 +15297,7 @@
       <c r="E6" s="65"/>
       <c r="F6" s="66"/>
     </row>
-    <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="61"/>
       <c r="B7" s="69"/>
       <c r="C7" s="70"/>
@@ -15260,7 +15305,7 @@
       <c r="E7" s="65"/>
       <c r="F7" s="66"/>
     </row>
-    <row r="8" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="45"/>
       <c r="B8" s="71"/>
       <c r="C8" s="71"/>
@@ -15268,7 +15313,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="47"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -15276,7 +15321,7 @@
       <c r="E9" s="15"/>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -15284,7 +15329,7 @@
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -15307,17 +15352,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="21" width="5.5703125" customWidth="1"/>
-    <col min="22" max="22" width="6.5703125" customWidth="1"/>
-    <col min="23" max="23" width="7.7109375" customWidth="1"/>
-    <col min="24" max="24" width="8.7109375" customWidth="1"/>
-    <col min="25" max="25" width="9.28515625" customWidth="1"/>
+    <col min="1" max="2" width="16.453125" customWidth="1"/>
+    <col min="3" max="21" width="5.54296875" customWidth="1"/>
+    <col min="22" max="22" width="6.54296875" customWidth="1"/>
+    <col min="23" max="23" width="7.7265625" customWidth="1"/>
+    <col min="24" max="24" width="8.7265625" customWidth="1"/>
+    <col min="25" max="25" width="9.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60" t="s">
         <v>142</v>
       </c>
@@ -15348,7 +15393,7 @@
       <c r="X1" s="15"/>
       <c r="Y1" s="9"/>
     </row>
-    <row r="2" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -15375,7 +15420,7 @@
       <c r="X2" s="15"/>
       <c r="Y2" s="9"/>
     </row>
-    <row r="3" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22"/>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
@@ -15402,7 +15447,7 @@
       <c r="X3" s="15"/>
       <c r="Y3" s="9"/>
     </row>
-    <row r="4" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22"/>
       <c r="B4" s="22"/>
       <c r="C4" s="22"/>
@@ -15429,7 +15474,7 @@
       <c r="X4" s="15"/>
       <c r="Y4" s="9"/>
     </row>
-    <row r="5" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22"/>
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
@@ -15456,7 +15501,7 @@
       <c r="X5" s="15"/>
       <c r="Y5" s="9"/>
     </row>
-    <row r="6" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22"/>
       <c r="B6" s="22"/>
       <c r="C6" s="22"/>
@@ -15483,7 +15528,7 @@
       <c r="X6" s="15"/>
       <c r="Y6" s="9"/>
     </row>
-    <row r="7" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
@@ -15510,7 +15555,7 @@
       <c r="X7" s="15"/>
       <c r="Y7" s="9"/>
     </row>
-    <row r="8" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
@@ -15537,7 +15582,7 @@
       <c r="X8" s="15"/>
       <c r="Y8" s="9"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
@@ -15564,7 +15609,7 @@
       <c r="X9" s="15"/>
       <c r="Y9" s="9"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A10" s="22"/>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -15591,7 +15636,7 @@
       <c r="X10" s="15"/>
       <c r="Y10" s="9"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
@@ -15618,7 +15663,7 @@
       <c r="X11" s="15"/>
       <c r="Y11" s="9"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A12" s="22"/>
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
@@ -15645,7 +15690,7 @@
       <c r="X12" s="15"/>
       <c r="Y12" s="9"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A13" s="22"/>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
@@ -15672,7 +15717,7 @@
       <c r="X13" s="15"/>
       <c r="Y13" s="9"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A14" s="22"/>
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
@@ -15699,7 +15744,7 @@
       <c r="X14" s="15"/>
       <c r="Y14" s="9"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A15" s="22"/>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
@@ -15726,7 +15771,7 @@
       <c r="X15" s="15"/>
       <c r="Y15" s="9"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A16" s="22"/>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
@@ -15753,7 +15798,7 @@
       <c r="X16" s="15"/>
       <c r="Y16" s="9"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A17" s="22"/>
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
@@ -15780,7 +15825,7 @@
       <c r="X17" s="15"/>
       <c r="Y17" s="9"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A18" s="22"/>
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
@@ -15807,7 +15852,7 @@
       <c r="X18" s="15"/>
       <c r="Y18" s="9"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A19" s="22"/>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
@@ -15834,7 +15879,7 @@
       <c r="X19" s="15"/>
       <c r="Y19" s="9"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="22"/>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
@@ -15861,7 +15906,7 @@
       <c r="X20" s="15"/>
       <c r="Y20" s="9"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A21" s="22"/>
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
@@ -15888,7 +15933,7 @@
       <c r="X21" s="15"/>
       <c r="Y21" s="9"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A22" s="22"/>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
@@ -15915,7 +15960,7 @@
       <c r="X22" s="15"/>
       <c r="Y22" s="9"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A23" s="22"/>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
@@ -15942,7 +15987,7 @@
       <c r="X23" s="15"/>
       <c r="Y23" s="9"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="22"/>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
@@ -15969,7 +16014,7 @@
       <c r="X24" s="15"/>
       <c r="Y24" s="9"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="22"/>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
@@ -15996,7 +16041,7 @@
       <c r="X25" s="15"/>
       <c r="Y25" s="9"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A26" s="22"/>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
@@ -16023,7 +16068,7 @@
       <c r="X26" s="15"/>
       <c r="Y26" s="9"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A27" s="22"/>
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
@@ -16050,7 +16095,7 @@
       <c r="X27" s="15"/>
       <c r="Y27" s="9"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A28" s="22"/>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
@@ -16077,7 +16122,7 @@
       <c r="X28" s="15"/>
       <c r="Y28" s="9"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="22"/>
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
@@ -16104,7 +16149,7 @@
       <c r="X29" s="15"/>
       <c r="Y29" s="9"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="22"/>
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
@@ -16131,7 +16176,7 @@
       <c r="X30" s="15"/>
       <c r="Y30" s="9"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A31" s="22"/>
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
@@ -16158,7 +16203,7 @@
       <c r="X31" s="15"/>
       <c r="Y31" s="9"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A32" s="22"/>
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
@@ -16185,7 +16230,7 @@
       <c r="X32" s="15"/>
       <c r="Y32" s="9"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A33" s="22"/>
       <c r="B33" s="22"/>
       <c r="C33" s="22"/>
@@ -16212,7 +16257,7 @@
       <c r="X33" s="15"/>
       <c r="Y33" s="9"/>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="22"/>
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
@@ -16239,7 +16284,7 @@
       <c r="X34" s="15"/>
       <c r="Y34" s="9"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="22"/>
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
@@ -16266,7 +16311,7 @@
       <c r="X35" s="15"/>
       <c r="Y35" s="9"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="22"/>
       <c r="B36" s="22"/>
       <c r="C36" s="22"/>
@@ -16293,7 +16338,7 @@
       <c r="X36" s="15"/>
       <c r="Y36" s="9"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="22"/>
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
@@ -16320,7 +16365,7 @@
       <c r="X37" s="15"/>
       <c r="Y37" s="9"/>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="22"/>
       <c r="B38" s="22"/>
       <c r="C38" s="22"/>
@@ -16347,7 +16392,7 @@
       <c r="X38" s="15"/>
       <c r="Y38" s="9"/>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="22"/>
       <c r="B39" s="22"/>
       <c r="C39" s="22"/>
@@ -16374,7 +16419,7 @@
       <c r="X39" s="15"/>
       <c r="Y39" s="9"/>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="22"/>
       <c r="B40" s="22"/>
       <c r="C40" s="22"/>
@@ -16401,7 +16446,7 @@
       <c r="X40" s="15"/>
       <c r="Y40" s="9"/>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="22"/>
       <c r="B41" s="22"/>
       <c r="C41" s="22"/>
@@ -16428,7 +16473,7 @@
       <c r="X41" s="15"/>
       <c r="Y41" s="9"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="22"/>
       <c r="B42" s="22"/>
       <c r="C42" s="22"/>
@@ -16455,7 +16500,7 @@
       <c r="X42" s="15"/>
       <c r="Y42" s="9"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="22"/>
       <c r="B43" s="22"/>
       <c r="C43" s="22"/>
@@ -16482,7 +16527,7 @@
       <c r="X43" s="15"/>
       <c r="Y43" s="9"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A44" s="22"/>
       <c r="B44" s="22"/>
       <c r="C44" s="22"/>
@@ -16509,7 +16554,7 @@
       <c r="X44" s="15"/>
       <c r="Y44" s="9"/>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="22"/>
       <c r="B45" s="22"/>
       <c r="C45" s="22"/>
@@ -16536,7 +16581,7 @@
       <c r="X45" s="15"/>
       <c r="Y45" s="9"/>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="22"/>
       <c r="B46" s="22"/>
       <c r="C46" s="22"/>
@@ -16563,7 +16608,7 @@
       <c r="X46" s="15"/>
       <c r="Y46" s="9"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="22"/>
       <c r="B47" s="22"/>
       <c r="C47" s="22"/>
@@ -16590,7 +16635,7 @@
       <c r="X47" s="15"/>
       <c r="Y47" s="9"/>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A48" s="22"/>
       <c r="B48" s="22"/>
       <c r="C48" s="22"/>
@@ -16617,7 +16662,7 @@
       <c r="X48" s="15"/>
       <c r="Y48" s="9"/>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A49" s="22"/>
       <c r="B49" s="22"/>
       <c r="C49" s="22"/>
@@ -16644,7 +16689,7 @@
       <c r="X49" s="15"/>
       <c r="Y49" s="9"/>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A50" s="22"/>
       <c r="B50" s="22"/>
       <c r="C50" s="22"/>
@@ -16671,7 +16716,7 @@
       <c r="X50" s="15"/>
       <c r="Y50" s="9"/>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A51" s="22"/>
       <c r="B51" s="22"/>
       <c r="C51" s="22"/>
@@ -16698,7 +16743,7 @@
       <c r="X51" s="15"/>
       <c r="Y51" s="9"/>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A52" s="22"/>
       <c r="B52" s="22"/>
       <c r="C52" s="22"/>
@@ -16725,7 +16770,7 @@
       <c r="X52" s="15"/>
       <c r="Y52" s="9"/>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A53" s="22"/>
       <c r="B53" s="22"/>
       <c r="C53" s="22"/>
@@ -16752,7 +16797,7 @@
       <c r="X53" s="15"/>
       <c r="Y53" s="9"/>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A54" s="22"/>
       <c r="B54" s="22"/>
       <c r="C54" s="22"/>
@@ -16779,7 +16824,7 @@
       <c r="X54" s="15"/>
       <c r="Y54" s="9"/>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A55" s="22"/>
       <c r="B55" s="22"/>
       <c r="C55" s="22"/>
@@ -16806,7 +16851,7 @@
       <c r="X55" s="15"/>
       <c r="Y55" s="9"/>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A56" s="22"/>
       <c r="B56" s="22"/>
       <c r="C56" s="22"/>
@@ -16833,7 +16878,7 @@
       <c r="X56" s="15"/>
       <c r="Y56" s="9"/>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A57" s="22"/>
       <c r="B57" s="22"/>
       <c r="C57" s="22"/>
@@ -16860,7 +16905,7 @@
       <c r="X57" s="15"/>
       <c r="Y57" s="9"/>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A58" s="22"/>
       <c r="B58" s="22"/>
       <c r="C58" s="22"/>
@@ -16887,7 +16932,7 @@
       <c r="X58" s="15"/>
       <c r="Y58" s="9"/>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A59" s="22"/>
       <c r="B59" s="22"/>
       <c r="C59" s="22"/>
@@ -16914,7 +16959,7 @@
       <c r="X59" s="15"/>
       <c r="Y59" s="9"/>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A60" s="22"/>
       <c r="B60" s="22"/>
       <c r="C60" s="22"/>
@@ -16941,7 +16986,7 @@
       <c r="X60" s="15"/>
       <c r="Y60" s="9"/>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A61" s="22"/>
       <c r="B61" s="22"/>
       <c r="C61" s="22"/>
@@ -16968,7 +17013,7 @@
       <c r="X61" s="15"/>
       <c r="Y61" s="9"/>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A62" s="22"/>
       <c r="B62" s="22"/>
       <c r="C62" s="22"/>
@@ -16995,7 +17040,7 @@
       <c r="X62" s="15"/>
       <c r="Y62" s="9"/>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A63" s="22"/>
       <c r="B63" s="22"/>
       <c r="C63" s="22"/>
@@ -17022,7 +17067,7 @@
       <c r="X63" s="15"/>
       <c r="Y63" s="9"/>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A64" s="22"/>
       <c r="B64" s="22"/>
       <c r="C64" s="22"/>
@@ -17049,7 +17094,7 @@
       <c r="X64" s="15"/>
       <c r="Y64" s="9"/>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A65" s="22"/>
       <c r="B65" s="22"/>
       <c r="C65" s="22"/>
@@ -17076,7 +17121,7 @@
       <c r="X65" s="15"/>
       <c r="Y65" s="9"/>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A66" s="22"/>
       <c r="B66" s="22"/>
       <c r="C66" s="22"/>
@@ -17103,7 +17148,7 @@
       <c r="X66" s="15"/>
       <c r="Y66" s="9"/>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A67" s="22"/>
       <c r="B67" s="22"/>
       <c r="C67" s="22"/>
@@ -17130,7 +17175,7 @@
       <c r="X67" s="15"/>
       <c r="Y67" s="9"/>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A68" s="22"/>
       <c r="B68" s="22"/>
       <c r="C68" s="22"/>
@@ -17157,7 +17202,7 @@
       <c r="X68" s="15"/>
       <c r="Y68" s="9"/>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A69" s="22"/>
       <c r="B69" s="22"/>
       <c r="C69" s="22"/>
@@ -17184,7 +17229,7 @@
       <c r="X69" s="15"/>
       <c r="Y69" s="9"/>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A70" s="22"/>
       <c r="B70" s="22"/>
       <c r="C70" s="22"/>
@@ -17211,7 +17256,7 @@
       <c r="X70" s="15"/>
       <c r="Y70" s="9"/>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A71" s="22"/>
       <c r="B71" s="22"/>
       <c r="C71" s="22"/>
@@ -17238,7 +17283,7 @@
       <c r="X71" s="15"/>
       <c r="Y71" s="9"/>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A72" s="22"/>
       <c r="B72" s="22"/>
       <c r="C72" s="22"/>
@@ -17265,7 +17310,7 @@
       <c r="X72" s="15"/>
       <c r="Y72" s="9"/>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A73" s="22"/>
       <c r="B73" s="22"/>
       <c r="C73" s="22"/>
@@ -17292,7 +17337,7 @@
       <c r="X73" s="15"/>
       <c r="Y73" s="9"/>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A74" s="22"/>
       <c r="B74" s="22"/>
       <c r="C74" s="22"/>
@@ -17319,7 +17364,7 @@
       <c r="X74" s="15"/>
       <c r="Y74" s="9"/>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A75" s="22"/>
       <c r="B75" s="22"/>
       <c r="C75" s="22"/>
@@ -17346,7 +17391,7 @@
       <c r="X75" s="15"/>
       <c r="Y75" s="9"/>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A76" s="22"/>
       <c r="B76" s="22"/>
       <c r="C76" s="22"/>
@@ -17373,7 +17418,7 @@
       <c r="X76" s="15"/>
       <c r="Y76" s="9"/>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A77" s="22"/>
       <c r="B77" s="22"/>
       <c r="C77" s="22"/>
@@ -17400,7 +17445,7 @@
       <c r="X77" s="15"/>
       <c r="Y77" s="9"/>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A78" s="22"/>
       <c r="B78" s="22"/>
       <c r="C78" s="22"/>
@@ -17427,7 +17472,7 @@
       <c r="X78" s="15"/>
       <c r="Y78" s="9"/>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A79" s="22"/>
       <c r="B79" s="22"/>
       <c r="C79" s="22"/>
@@ -17454,7 +17499,7 @@
       <c r="X79" s="15"/>
       <c r="Y79" s="9"/>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A80" s="22"/>
       <c r="B80" s="22"/>
       <c r="C80" s="22"/>
@@ -17481,7 +17526,7 @@
       <c r="X80" s="15"/>
       <c r="Y80" s="9"/>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A81" s="22"/>
       <c r="B81" s="22"/>
       <c r="C81" s="22"/>
@@ -17508,7 +17553,7 @@
       <c r="X81" s="15"/>
       <c r="Y81" s="9"/>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A82" s="22"/>
       <c r="B82" s="22"/>
       <c r="C82" s="22"/>
@@ -17535,7 +17580,7 @@
       <c r="X82" s="15"/>
       <c r="Y82" s="9"/>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A83" s="22"/>
       <c r="B83" s="22"/>
       <c r="C83" s="22"/>
@@ -17562,7 +17607,7 @@
       <c r="X83" s="15"/>
       <c r="Y83" s="9"/>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A84" s="22"/>
       <c r="B84" s="22"/>
       <c r="C84" s="22"/>
@@ -17589,7 +17634,7 @@
       <c r="X84" s="15"/>
       <c r="Y84" s="9"/>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A85" s="22"/>
       <c r="B85" s="22"/>
       <c r="C85" s="22"/>
@@ -17616,7 +17661,7 @@
       <c r="X85" s="15"/>
       <c r="Y85" s="9"/>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A86" s="22"/>
       <c r="B86" s="22"/>
       <c r="C86" s="22"/>
@@ -17643,7 +17688,7 @@
       <c r="X86" s="15"/>
       <c r="Y86" s="9"/>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A87" s="22"/>
       <c r="B87" s="22"/>
       <c r="C87" s="22"/>
@@ -17670,7 +17715,7 @@
       <c r="X87" s="15"/>
       <c r="Y87" s="9"/>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A88" s="22"/>
       <c r="B88" s="22"/>
       <c r="C88" s="22"/>
@@ -17697,7 +17742,7 @@
       <c r="X88" s="15"/>
       <c r="Y88" s="9"/>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A89" s="22"/>
       <c r="B89" s="22"/>
       <c r="C89" s="22"/>
@@ -17724,7 +17769,7 @@
       <c r="X89" s="15"/>
       <c r="Y89" s="9"/>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A90" s="22"/>
       <c r="B90" s="22"/>
       <c r="C90" s="22"/>
@@ -17751,7 +17796,7 @@
       <c r="X90" s="15"/>
       <c r="Y90" s="9"/>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A91" s="22"/>
       <c r="B91" s="22"/>
       <c r="C91" s="22"/>
@@ -17778,7 +17823,7 @@
       <c r="X91" s="15"/>
       <c r="Y91" s="9"/>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A92" s="22"/>
       <c r="B92" s="22"/>
       <c r="C92" s="22"/>
@@ -17805,7 +17850,7 @@
       <c r="X92" s="15"/>
       <c r="Y92" s="9"/>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A93" s="22"/>
       <c r="B93" s="22"/>
       <c r="C93" s="22"/>
@@ -17832,7 +17877,7 @@
       <c r="X93" s="15"/>
       <c r="Y93" s="9"/>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A94" s="22"/>
       <c r="B94" s="22"/>
       <c r="C94" s="22"/>
@@ -17859,7 +17904,7 @@
       <c r="X94" s="15"/>
       <c r="Y94" s="9"/>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A95" s="22"/>
       <c r="B95" s="22"/>
       <c r="C95" s="22"/>
@@ -17886,7 +17931,7 @@
       <c r="X95" s="15"/>
       <c r="Y95" s="9"/>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A96" s="22"/>
       <c r="B96" s="22"/>
       <c r="C96" s="22"/>
@@ -17913,7 +17958,7 @@
       <c r="X96" s="15"/>
       <c r="Y96" s="9"/>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A97" s="22"/>
       <c r="B97" s="22"/>
       <c r="C97" s="22"/>
@@ -17940,7 +17985,7 @@
       <c r="X97" s="15"/>
       <c r="Y97" s="9"/>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A98" s="22"/>
       <c r="B98" s="22"/>
       <c r="C98" s="22"/>
@@ -17967,7 +18012,7 @@
       <c r="X98" s="15"/>
       <c r="Y98" s="9"/>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A99" s="22"/>
       <c r="B99" s="22"/>
       <c r="C99" s="22"/>
@@ -17994,7 +18039,7 @@
       <c r="X99" s="15"/>
       <c r="Y99" s="9"/>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A100" s="22"/>
       <c r="B100" s="22"/>
       <c r="C100" s="22"/>
@@ -18021,7 +18066,7 @@
       <c r="X100" s="15"/>
       <c r="Y100" s="9"/>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A101" s="15"/>
       <c r="B101" s="15"/>
       <c r="C101" s="15"/>
@@ -18048,7 +18093,7 @@
       <c r="X101" s="15"/>
       <c r="Y101" s="9"/>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A102" s="15"/>
       <c r="B102" s="15"/>
       <c r="C102" s="15"/>
@@ -18075,7 +18120,7 @@
       <c r="X102" s="15"/>
       <c r="Y102" s="9"/>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A103" s="15"/>
       <c r="B103" s="15"/>
       <c r="C103" s="15"/>
@@ -18102,7 +18147,7 @@
       <c r="X103" s="15"/>
       <c r="Y103" s="9"/>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A104" s="15"/>
       <c r="B104" s="15"/>
       <c r="C104" s="15"/>
@@ -18129,7 +18174,7 @@
       <c r="X104" s="15"/>
       <c r="Y104" s="9"/>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:25" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A105" s="9"/>
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
@@ -18167,7 +18212,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
